--- a/data/APR25-Max.xlsx
+++ b/data/APR25-Max.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\Water-Use-Assumptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF307D-3D76-4DBE-B6CE-DF654E71F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87F56A2-1CAE-4745-8F35-E869EFA9A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58650" yWindow="2955" windowWidth="19740" windowHeight="17595" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
+    <workbookView xWindow="56010" yWindow="375" windowWidth="19200" windowHeight="20250" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t xml:space="preserve">AnnualWaterUse.California_Apportionment </t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mexico_CU_Forecast1.MexicoTJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS Credits.TributaryICS_NV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS Credits.AnnualDeliveryCurrentYearTribConserv_NV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS Credits.VacatedECICSToSysWater_SNWA </t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4732B70-47CF-476C-AB24-60ECD71C8D50}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,92 +1118,92 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>127000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
-        <v>131000</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>35000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="D35" s="2">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="E35" s="2">
-        <v>35000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" s="2">
+        <v>127000</v>
       </c>
       <c r="D36" s="2">
-        <v>18182</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>131000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>35000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" s="2">
+        <v>35000</v>
       </c>
       <c r="D37" s="2">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="E37" s="2">
-        <v>8000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -1203,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>42704</v>
+        <v>18182</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1211,135 +1220,135 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>616332</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>600000</v>
+        <v>24000</v>
       </c>
       <c r="E39" s="2">
-        <v>554741</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>1510291</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>1650000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>1670367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>498522</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>450000</v>
+        <v>42704</v>
       </c>
       <c r="E41" s="2">
-        <v>474892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>1241872</v>
+        <v>616332</v>
       </c>
       <c r="D42" s="2">
-        <v>1353000</v>
+        <v>600000</v>
       </c>
       <c r="E42" s="2">
-        <v>1459000</v>
+        <v>554741</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>50000</v>
+        <v>1510291</v>
       </c>
       <c r="D43" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>1650000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1670367</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>30000</v>
+        <v>498522</v>
       </c>
       <c r="D44" s="2">
-        <v>30000</v>
+        <v>450000</v>
       </c>
       <c r="E44" s="2">
-        <v>41000</v>
+        <v>474892</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+      <c r="C45" s="2">
+        <v>1241872</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1353000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1459000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>120596</v>
+        <v>50000</v>
       </c>
       <c r="D46" s="2">
-        <v>67000</v>
+        <v>50000</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1347,30 +1356,30 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>21646</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>30000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>41000</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>79404</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1381,18 +1390,69 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>120596</v>
+      </c>
+      <c r="D49" s="2">
+        <v>67000</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>21646</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>79404</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
     </row>
